--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Col4a6</t>
+  </si>
+  <si>
+    <t>Cd93</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Col4a6</t>
-  </si>
-  <si>
-    <t>Cd93</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1033526666666666</v>
+        <v>0.168746</v>
       </c>
       <c r="H2">
-        <v>0.3100579999999999</v>
+        <v>0.506238</v>
       </c>
       <c r="I2">
-        <v>0.1441411538061022</v>
+        <v>0.8802363349306922</v>
       </c>
       <c r="J2">
-        <v>0.1441411538061022</v>
+        <v>0.8802363349306922</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N2">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O2">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P2">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q2">
-        <v>13.227495028706</v>
+        <v>35.72975970853666</v>
       </c>
       <c r="R2">
-        <v>119.047455258354</v>
+        <v>321.56783737683</v>
       </c>
       <c r="S2">
-        <v>0.06622910533249496</v>
+        <v>0.414714377740528</v>
       </c>
       <c r="T2">
-        <v>0.06622910533249496</v>
+        <v>0.414714377740528</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1033526666666666</v>
+        <v>0.168746</v>
       </c>
       <c r="H3">
-        <v>0.3100579999999999</v>
+        <v>0.506238</v>
       </c>
       <c r="I3">
-        <v>0.1441411538061022</v>
+        <v>0.8802363349306922</v>
       </c>
       <c r="J3">
-        <v>0.1441411538061022</v>
+        <v>0.8802363349306922</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N3">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q3">
-        <v>6.248024164271555</v>
+        <v>12.88398130718533</v>
       </c>
       <c r="R3">
-        <v>56.23221747844399</v>
+        <v>115.955831764668</v>
       </c>
       <c r="S3">
-        <v>0.03128340245809909</v>
+        <v>0.1495440309203466</v>
       </c>
       <c r="T3">
-        <v>0.03128340245809908</v>
+        <v>0.1495440309203465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1033526666666666</v>
+        <v>0.168746</v>
       </c>
       <c r="H4">
-        <v>0.3100579999999999</v>
+        <v>0.506238</v>
       </c>
       <c r="I4">
-        <v>0.1441411538061022</v>
+        <v>0.8802363349306922</v>
       </c>
       <c r="J4">
-        <v>0.1441411538061022</v>
+        <v>0.8802363349306922</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N4">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O4">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P4">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q4">
-        <v>0.2552450510368888</v>
+        <v>0.1690168373299999</v>
       </c>
       <c r="R4">
-        <v>2.297205459331999</v>
+        <v>1.52115153597</v>
       </c>
       <c r="S4">
-        <v>0.001277993401927885</v>
+        <v>0.001961773969172146</v>
       </c>
       <c r="T4">
-        <v>0.001277993401927885</v>
+        <v>0.001961773969172146</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1033526666666666</v>
+        <v>0.168746</v>
       </c>
       <c r="H5">
-        <v>0.3100579999999999</v>
+        <v>0.506238</v>
       </c>
       <c r="I5">
-        <v>0.1441411538061022</v>
+        <v>0.8802363349306922</v>
       </c>
       <c r="J5">
-        <v>0.1441411538061022</v>
+        <v>0.8802363349306922</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N5">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q5">
-        <v>2.920519431994889</v>
+        <v>4.342487458273999</v>
       </c>
       <c r="R5">
-        <v>26.284674887954</v>
+        <v>39.082387124466</v>
       </c>
       <c r="S5">
-        <v>0.01462282833351477</v>
+        <v>0.05040313729492768</v>
       </c>
       <c r="T5">
-        <v>0.01462282833351477</v>
+        <v>0.05040313729492768</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1033526666666666</v>
+        <v>0.168746</v>
       </c>
       <c r="H6">
-        <v>0.3100579999999999</v>
+        <v>0.506238</v>
       </c>
       <c r="I6">
-        <v>0.1441411538061022</v>
+        <v>0.8802363349306922</v>
       </c>
       <c r="J6">
-        <v>0.1441411538061022</v>
+        <v>0.8802363349306922</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N6">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O6">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P6">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q6">
-        <v>6.137062260874221</v>
+        <v>22.711606319302</v>
       </c>
       <c r="R6">
-        <v>55.23356034786799</v>
+        <v>204.404456873718</v>
       </c>
       <c r="S6">
-        <v>0.03072782428006555</v>
+        <v>0.2636130150057179</v>
       </c>
       <c r="T6">
-        <v>0.03072782428006554</v>
+        <v>0.2636130150057179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.168746</v>
+        <v>0.02295933333333333</v>
       </c>
       <c r="H7">
-        <v>0.506238</v>
+        <v>0.06887799999999999</v>
       </c>
       <c r="I7">
-        <v>0.235342192172089</v>
+        <v>0.1197636650693078</v>
       </c>
       <c r="J7">
-        <v>0.235342192172089</v>
+        <v>0.1197636650693078</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N7">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O7">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P7">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q7">
-        <v>21.596800044966</v>
+        <v>4.861338716581111</v>
       </c>
       <c r="R7">
-        <v>194.371200404694</v>
+        <v>43.75204844923</v>
       </c>
       <c r="S7">
-        <v>0.1081336066971715</v>
+        <v>0.05642543015342998</v>
       </c>
       <c r="T7">
-        <v>0.1081336066971714</v>
+        <v>0.05642543015342998</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.168746</v>
+        <v>0.02295933333333333</v>
       </c>
       <c r="H8">
-        <v>0.506238</v>
+        <v>0.06887799999999999</v>
       </c>
       <c r="I8">
-        <v>0.235342192172089</v>
+        <v>0.1197636650693078</v>
       </c>
       <c r="J8">
-        <v>0.235342192172089</v>
+        <v>0.1197636650693078</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N8">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q8">
-        <v>10.20127607374267</v>
+        <v>1.752975605300889</v>
       </c>
       <c r="R8">
-        <v>91.811484663684</v>
+        <v>15.776780447708</v>
       </c>
       <c r="S8">
-        <v>0.0510770471769255</v>
+        <v>0.0203467415755665</v>
       </c>
       <c r="T8">
-        <v>0.05107704717692548</v>
+        <v>0.0203467415755665</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.168746</v>
+        <v>0.02295933333333333</v>
       </c>
       <c r="H9">
-        <v>0.506238</v>
+        <v>0.06887799999999999</v>
       </c>
       <c r="I9">
-        <v>0.235342192172089</v>
+        <v>0.1197636650693078</v>
       </c>
       <c r="J9">
-        <v>0.235342192172089</v>
+        <v>0.1197636650693078</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N9">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O9">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P9">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q9">
-        <v>0.4167437838946666</v>
+        <v>0.02299618306333333</v>
       </c>
       <c r="R9">
-        <v>3.750694055052</v>
+        <v>0.20696564757</v>
       </c>
       <c r="S9">
-        <v>0.002086605808607321</v>
+        <v>0.0002669160897614147</v>
       </c>
       <c r="T9">
-        <v>0.00208660580860732</v>
+        <v>0.0002669160897614147</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.168746</v>
+        <v>0.02295933333333333</v>
       </c>
       <c r="H10">
-        <v>0.506238</v>
+        <v>0.06887799999999999</v>
       </c>
       <c r="I10">
-        <v>0.235342192172089</v>
+        <v>0.1197636650693078</v>
       </c>
       <c r="J10">
-        <v>0.235342192172089</v>
+        <v>0.1197636650693078</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N10">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q10">
-        <v>4.768391450032667</v>
+        <v>0.5908324763273333</v>
       </c>
       <c r="R10">
-        <v>42.915523050294</v>
+        <v>5.317492286945999</v>
       </c>
       <c r="S10">
-        <v>0.02387498909849722</v>
+        <v>0.006857776955898271</v>
       </c>
       <c r="T10">
-        <v>0.02387498909849722</v>
+        <v>0.006857776955898271</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.168746</v>
+        <v>0.02295933333333333</v>
       </c>
       <c r="H11">
-        <v>0.506238</v>
+        <v>0.06887799999999999</v>
       </c>
       <c r="I11">
-        <v>0.235342192172089</v>
+        <v>0.1197636650693078</v>
       </c>
       <c r="J11">
-        <v>0.235342192172089</v>
+        <v>0.1197636650693078</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,338 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N11">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O11">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P11">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q11">
-        <v>10.02010631823867</v>
+        <v>3.090107854528666</v>
       </c>
       <c r="R11">
-        <v>90.18095686414799</v>
+        <v>27.810970690758</v>
       </c>
       <c r="S11">
-        <v>0.05016994339088759</v>
+        <v>0.03586680029465161</v>
       </c>
       <c r="T11">
-        <v>0.05016994339088757</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.4449253333333334</v>
-      </c>
-      <c r="H12">
-        <v>1.334776</v>
-      </c>
-      <c r="I12">
-        <v>0.6205166540218088</v>
-      </c>
-      <c r="J12">
-        <v>0.6205166540218087</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>127.984071</v>
-      </c>
-      <c r="N12">
-        <v>383.952213</v>
-      </c>
-      <c r="O12">
-        <v>0.4594739502473106</v>
-      </c>
-      <c r="P12">
-        <v>0.4594739502473105</v>
-      </c>
-      <c r="Q12">
-        <v>56.94335545103201</v>
-      </c>
-      <c r="R12">
-        <v>512.490199059288</v>
-      </c>
-      <c r="S12">
-        <v>0.2851112382176442</v>
-      </c>
-      <c r="T12">
-        <v>0.2851112382176441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.4449253333333334</v>
-      </c>
-      <c r="H13">
-        <v>1.334776</v>
-      </c>
-      <c r="I13">
-        <v>0.6205166540218088</v>
-      </c>
-      <c r="J13">
-        <v>0.6205166540218087</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>60.45343933333334</v>
-      </c>
-      <c r="N13">
-        <v>181.360318</v>
-      </c>
-      <c r="O13">
-        <v>0.2170331070069088</v>
-      </c>
-      <c r="P13">
-        <v>0.2170331070069088</v>
-      </c>
-      <c r="Q13">
-        <v>26.89726664652978</v>
-      </c>
-      <c r="R13">
-        <v>242.075399818768</v>
-      </c>
-      <c r="S13">
-        <v>0.1346726573718842</v>
-      </c>
-      <c r="T13">
-        <v>0.1346726573718842</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.4449253333333334</v>
-      </c>
-      <c r="H14">
-        <v>1.334776</v>
-      </c>
-      <c r="I14">
-        <v>0.6205166540218088</v>
-      </c>
-      <c r="J14">
-        <v>0.6205166540218087</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2.469651333333333</v>
-      </c>
-      <c r="N14">
-        <v>7.408954</v>
-      </c>
-      <c r="O14">
-        <v>0.008866263160672584</v>
-      </c>
-      <c r="P14">
-        <v>0.008866263160672582</v>
-      </c>
-      <c r="Q14">
-        <v>1.098810442700445</v>
-      </c>
-      <c r="R14">
-        <v>9.889293984304</v>
-      </c>
-      <c r="S14">
-        <v>0.005501663950137379</v>
-      </c>
-      <c r="T14">
-        <v>0.005501663950137376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.4449253333333334</v>
-      </c>
-      <c r="H15">
-        <v>1.334776</v>
-      </c>
-      <c r="I15">
-        <v>0.6205166540218088</v>
-      </c>
-      <c r="J15">
-        <v>0.6205166540218087</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>28.25780433333334</v>
-      </c>
-      <c r="N15">
-        <v>84.77341300000001</v>
-      </c>
-      <c r="O15">
-        <v>0.1014479761497213</v>
-      </c>
-      <c r="P15">
-        <v>0.1014479761497213</v>
-      </c>
-      <c r="Q15">
-        <v>12.57261301227645</v>
-      </c>
-      <c r="R15">
-        <v>113.153517110488</v>
-      </c>
-      <c r="S15">
-        <v>0.06295015871770934</v>
-      </c>
-      <c r="T15">
-        <v>0.06295015871770931</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.4449253333333334</v>
-      </c>
-      <c r="H16">
-        <v>1.334776</v>
-      </c>
-      <c r="I16">
-        <v>0.6205166540218088</v>
-      </c>
-      <c r="J16">
-        <v>0.6205166540218087</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>59.37981533333333</v>
-      </c>
-      <c r="N16">
-        <v>178.139446</v>
-      </c>
-      <c r="O16">
-        <v>0.2131787034353869</v>
-      </c>
-      <c r="P16">
-        <v>0.2131787034353868</v>
-      </c>
-      <c r="Q16">
-        <v>26.41958413045511</v>
-      </c>
-      <c r="R16">
-        <v>237.776257174096</v>
-      </c>
-      <c r="S16">
-        <v>0.1322809357644337</v>
-      </c>
-      <c r="T16">
-        <v>0.1322809357644336</v>
+        <v>0.03586680029465161</v>
       </c>
     </row>
   </sheetData>
